--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABCD/20/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABCD/20/seed2/result_data_RandomForest.xlsx
@@ -465,13 +465,13 @@
         <v>-20.51</v>
       </c>
       <c r="B2" t="n">
-        <v>8.683200000000001</v>
+        <v>8.926300000000003</v>
       </c>
       <c r="C2" t="n">
         <v>-10.94</v>
       </c>
       <c r="D2" t="n">
-        <v>-7.324599999999998</v>
+        <v>-7.350600000000001</v>
       </c>
       <c r="E2" t="n">
         <v>17.25</v>
@@ -479,13 +479,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-21.9273</v>
+        <v>-21.9745</v>
       </c>
       <c r="B3" t="n">
         <v>4.03</v>
       </c>
       <c r="C3" t="n">
-        <v>-11.2705</v>
+        <v>-11.2788</v>
       </c>
       <c r="D3" t="n">
         <v>-8.949999999999999</v>
@@ -539,7 +539,7 @@
         <v>-15.25</v>
       </c>
       <c r="D6" t="n">
-        <v>-7.595299999999993</v>
+        <v>-7.670099999999996</v>
       </c>
       <c r="E6" t="n">
         <v>16.12</v>
@@ -638,7 +638,7 @@
         <v>4.54</v>
       </c>
       <c r="C12" t="n">
-        <v>-11.60059999999999</v>
+        <v>-11.81029999999999</v>
       </c>
       <c r="D12" t="n">
         <v>-6.85</v>
@@ -666,7 +666,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-21.64599999999999</v>
+        <v>-21.6214</v>
       </c>
       <c r="B14" t="n">
         <v>4.04</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.9307</v>
+        <v>-21.8525</v>
       </c>
       <c r="B16" t="n">
         <v>3.96</v>
@@ -737,7 +737,7 @@
         <v>-23.4</v>
       </c>
       <c r="B18" t="n">
-        <v>7.040899999999993</v>
+        <v>6.551299999999994</v>
       </c>
       <c r="C18" t="n">
         <v>-15.14</v>
@@ -760,7 +760,7 @@
         <v>-12.15</v>
       </c>
       <c r="D19" t="n">
-        <v>-9.250099999999991</v>
+        <v>-9.043599999999991</v>
       </c>
       <c r="E19" t="n">
         <v>16.87</v>
@@ -785,7 +785,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-20.36359999999998</v>
+        <v>-20.51619999999999</v>
       </c>
       <c r="B21" t="n">
         <v>9.52</v>
@@ -819,7 +819,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-20.88349999999998</v>
+        <v>-21.01039999999998</v>
       </c>
       <c r="B23" t="n">
         <v>7.87</v>
@@ -839,13 +839,13 @@
         <v>-20.85</v>
       </c>
       <c r="B24" t="n">
-        <v>7.565600000000002</v>
+        <v>6.921800000000003</v>
       </c>
       <c r="C24" t="n">
-        <v>-12.56529999999999</v>
+        <v>-12.60229999999999</v>
       </c>
       <c r="D24" t="n">
-        <v>-7.783499999999998</v>
+        <v>-7.531599999999997</v>
       </c>
       <c r="E24" t="n">
         <v>16.37</v>
@@ -853,13 +853,13 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-21.68309999999999</v>
+        <v>-21.54869999999998</v>
       </c>
       <c r="B25" t="n">
-        <v>5.528999999999994</v>
+        <v>5.8728</v>
       </c>
       <c r="C25" t="n">
-        <v>-13.12129999999999</v>
+        <v>-12.8883</v>
       </c>
       <c r="D25" t="n">
         <v>-7.4</v>
@@ -870,7 +870,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-21.14859999999997</v>
+        <v>-21.13729999999997</v>
       </c>
       <c r="B26" t="n">
         <v>6.56</v>
@@ -890,13 +890,13 @@
         <v>-21.86</v>
       </c>
       <c r="B27" t="n">
-        <v>5.920000000000007</v>
+        <v>5.734300000000002</v>
       </c>
       <c r="C27" t="n">
         <v>-11.92</v>
       </c>
       <c r="D27" t="n">
-        <v>-8.667499999999997</v>
+        <v>-8.654300000000001</v>
       </c>
       <c r="E27" t="n">
         <v>15.34</v>
@@ -921,7 +921,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-20.85649999999998</v>
+        <v>-20.99099999999997</v>
       </c>
       <c r="B29" t="n">
         <v>7.52</v>
@@ -941,13 +941,13 @@
         <v>-21.31</v>
       </c>
       <c r="B30" t="n">
-        <v>5.647399999999997</v>
+        <v>5.792199999999997</v>
       </c>
       <c r="C30" t="n">
         <v>-10.71</v>
       </c>
       <c r="D30" t="n">
-        <v>-7.284000000000003</v>
+        <v>-7.160800000000003</v>
       </c>
       <c r="E30" t="n">
         <v>16.57</v>
@@ -958,13 +958,13 @@
         <v>-21.76</v>
       </c>
       <c r="B31" t="n">
-        <v>5.485600000000005</v>
+        <v>5.158000000000002</v>
       </c>
       <c r="C31" t="n">
         <v>-11.3</v>
       </c>
       <c r="D31" t="n">
-        <v>-8.213800000000003</v>
+        <v>-8.537100000000002</v>
       </c>
       <c r="E31" t="n">
         <v>15.44</v>
@@ -998,7 +998,7 @@
         <v>-12.22</v>
       </c>
       <c r="D33" t="n">
-        <v>-7.933599999999996</v>
+        <v>-7.913099999999998</v>
       </c>
       <c r="E33" t="n">
         <v>17.52</v>
@@ -1094,7 +1094,7 @@
         <v>-18.76</v>
       </c>
       <c r="B39" t="n">
-        <v>9.491300000000003</v>
+        <v>9.879000000000001</v>
       </c>
       <c r="C39" t="n">
         <v>-10.58</v>
@@ -1108,7 +1108,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-20.2439</v>
+        <v>-20.35219999999999</v>
       </c>
       <c r="B40" t="n">
         <v>10.75</v>
@@ -1131,7 +1131,7 @@
         <v>8.92</v>
       </c>
       <c r="C41" t="n">
-        <v>-13.1839</v>
+        <v>-13.2763</v>
       </c>
       <c r="D41" t="n">
         <v>-8.720000000000001</v>
@@ -1145,13 +1145,13 @@
         <v>-18.32</v>
       </c>
       <c r="B42" t="n">
-        <v>9.806099999999992</v>
+        <v>9.748499999999991</v>
       </c>
       <c r="C42" t="n">
         <v>-13.45</v>
       </c>
       <c r="D42" t="n">
-        <v>-8.997599999999997</v>
+        <v>-8.876299999999992</v>
       </c>
       <c r="E42" t="n">
         <v>16.31</v>
@@ -1247,7 +1247,7 @@
         <v>-21.86</v>
       </c>
       <c r="B48" t="n">
-        <v>5.5056</v>
+        <v>5.380900000000002</v>
       </c>
       <c r="C48" t="n">
         <v>-10.86</v>
@@ -1284,7 +1284,7 @@
         <v>4.91</v>
       </c>
       <c r="C50" t="n">
-        <v>-13.26829999999999</v>
+        <v>-13.19979999999999</v>
       </c>
       <c r="D50" t="n">
         <v>-8.029999999999999</v>
@@ -1298,7 +1298,7 @@
         <v>-22</v>
       </c>
       <c r="B51" t="n">
-        <v>5.765099999999998</v>
+        <v>5.769500000000001</v>
       </c>
       <c r="C51" t="n">
         <v>-13.17</v>
@@ -1315,7 +1315,7 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>5.378299999999999</v>
+        <v>5.123300000000001</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
@@ -1329,13 +1329,13 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-21.69729999999999</v>
+        <v>-21.5186</v>
       </c>
       <c r="B53" t="n">
         <v>5.82</v>
       </c>
       <c r="C53" t="n">
-        <v>-10.8874</v>
+        <v>-10.4739</v>
       </c>
       <c r="D53" t="n">
         <v>-7.23</v>
@@ -1366,13 +1366,13 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>6.83429999999999</v>
+        <v>6.465299999999993</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
       </c>
       <c r="D55" t="n">
-        <v>-7.911699999999997</v>
+        <v>-7.653499999999999</v>
       </c>
       <c r="E55" t="n">
         <v>16.57</v>
@@ -1383,10 +1383,10 @@
         <v>-21.95</v>
       </c>
       <c r="B56" t="n">
-        <v>5.4327</v>
+        <v>5.347500000000001</v>
       </c>
       <c r="C56" t="n">
-        <v>-12.06849999999999</v>
+        <v>-12.21239999999999</v>
       </c>
       <c r="D56" t="n">
         <v>-8.92</v>
@@ -1397,13 +1397,13 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-22.04350000000001</v>
+        <v>-22.0862</v>
       </c>
       <c r="B57" t="n">
-        <v>5.067999999999998</v>
+        <v>5.476299999999996</v>
       </c>
       <c r="C57" t="n">
-        <v>-12.97259999999998</v>
+        <v>-12.94889999999999</v>
       </c>
       <c r="D57" t="n">
         <v>-8.31</v>
@@ -1420,10 +1420,10 @@
         <v>3.7</v>
       </c>
       <c r="C58" t="n">
-        <v>-13.28679999999999</v>
+        <v>-13.79819999999999</v>
       </c>
       <c r="D58" t="n">
-        <v>-8.229800000000001</v>
+        <v>-8.177399999999999</v>
       </c>
       <c r="E58" t="n">
         <v>16.91</v>
@@ -1431,7 +1431,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-22.31400000000001</v>
+        <v>-22.2563</v>
       </c>
       <c r="B59" t="n">
         <v>4.58</v>
@@ -1451,7 +1451,7 @@
         <v>-21.73</v>
       </c>
       <c r="B60" t="n">
-        <v>5.841299999999999</v>
+        <v>5.6502</v>
       </c>
       <c r="C60" t="n">
         <v>-13.33</v>
@@ -1471,7 +1471,7 @@
         <v>8.33</v>
       </c>
       <c r="C61" t="n">
-        <v>-13.06829999999999</v>
+        <v>-12.66579999999999</v>
       </c>
       <c r="D61" t="n">
         <v>-7.97</v>
@@ -1505,7 +1505,7 @@
         <v>4.39</v>
       </c>
       <c r="C63" t="n">
-        <v>-11.4232</v>
+        <v>-11.4553</v>
       </c>
       <c r="D63" t="n">
         <v>-7.14</v>
@@ -1522,7 +1522,7 @@
         <v>4.89</v>
       </c>
       <c r="C64" t="n">
-        <v>-11.3422</v>
+        <v>-11.5006</v>
       </c>
       <c r="D64" t="n">
         <v>-6.84</v>
@@ -1533,7 +1533,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>-21.84429999999999</v>
+        <v>-21.91729999999999</v>
       </c>
       <c r="B65" t="n">
         <v>6.69</v>
@@ -1542,7 +1542,7 @@
         <v>-11.86</v>
       </c>
       <c r="D65" t="n">
-        <v>-7.935799999999995</v>
+        <v>-8.0425</v>
       </c>
       <c r="E65" t="n">
         <v>17.18</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.61249999999998</v>
+        <v>-21.58929999999998</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1624,10 +1624,10 @@
         <v>4.05</v>
       </c>
       <c r="C70" t="n">
-        <v>-11.6969</v>
+        <v>-11.6935</v>
       </c>
       <c r="D70" t="n">
-        <v>-8.233700000000001</v>
+        <v>-8.251200000000001</v>
       </c>
       <c r="E70" t="n">
         <v>17.62</v>
@@ -1658,7 +1658,7 @@
         <v>6.81</v>
       </c>
       <c r="C72" t="n">
-        <v>-11.40919999999999</v>
+        <v>-11.3548</v>
       </c>
       <c r="D72" t="n">
         <v>-7.37</v>
@@ -1672,7 +1672,7 @@
         <v>-20.59</v>
       </c>
       <c r="B73" t="n">
-        <v>8.297499999999998</v>
+        <v>8.320099999999995</v>
       </c>
       <c r="C73" t="n">
         <v>-15.02</v>
@@ -1689,13 +1689,13 @@
         <v>-19.27</v>
       </c>
       <c r="B74" t="n">
-        <v>9.558399999999992</v>
+        <v>9.716099999999988</v>
       </c>
       <c r="C74" t="n">
         <v>-12.97</v>
       </c>
       <c r="D74" t="n">
-        <v>-8.686199999999999</v>
+        <v>-8.864899999999997</v>
       </c>
       <c r="E74" t="n">
         <v>16.1</v>
@@ -1712,7 +1712,7 @@
         <v>-14.77</v>
       </c>
       <c r="D75" t="n">
-        <v>-8.210800000000004</v>
+        <v>-8.123099999999999</v>
       </c>
       <c r="E75" t="n">
         <v>16.51</v>
@@ -1771,7 +1771,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-20.30500000000001</v>
+        <v>-20.44360000000002</v>
       </c>
       <c r="B79" t="n">
         <v>8.949999999999999</v>
@@ -1839,7 +1839,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.91909999999999</v>
+        <v>-22.08329999999999</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
@@ -1848,7 +1848,7 @@
         <v>-13.03</v>
       </c>
       <c r="D83" t="n">
-        <v>-8.455699999999991</v>
+        <v>-8.273399999999992</v>
       </c>
       <c r="E83" t="n">
         <v>16.38</v>
@@ -1865,7 +1865,7 @@
         <v>-12.28</v>
       </c>
       <c r="D84" t="n">
-        <v>-8.846199999999996</v>
+        <v>-8.871499999999999</v>
       </c>
       <c r="E84" t="n">
         <v>16.54</v>
@@ -1896,10 +1896,10 @@
         <v>4.69</v>
       </c>
       <c r="C86" t="n">
-        <v>-12.50309999999999</v>
+        <v>-13.1047</v>
       </c>
       <c r="D86" t="n">
-        <v>-8.336799999999995</v>
+        <v>-8.395799999999991</v>
       </c>
       <c r="E86" t="n">
         <v>17.03</v>
@@ -1944,10 +1944,10 @@
         <v>-21.45</v>
       </c>
       <c r="B89" t="n">
-        <v>5.239599999999996</v>
+        <v>5.761399999999996</v>
       </c>
       <c r="C89" t="n">
-        <v>-10.20580000000001</v>
+        <v>-10.4578</v>
       </c>
       <c r="D89" t="n">
         <v>-7</v>
@@ -1961,7 +1961,7 @@
         <v>-21.82</v>
       </c>
       <c r="B90" t="n">
-        <v>5.927100000000003</v>
+        <v>5.583700000000002</v>
       </c>
       <c r="C90" t="n">
         <v>-12.06</v>
@@ -1995,7 +1995,7 @@
         <v>-21.6</v>
       </c>
       <c r="B92" t="n">
-        <v>5.445699999999993</v>
+        <v>5.544999999999995</v>
       </c>
       <c r="C92" t="n">
         <v>-9.49</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-20.97279999999996</v>
+        <v>-21.20739999999998</v>
       </c>
       <c r="B93" t="n">
         <v>7.55</v>
@@ -2069,7 +2069,7 @@
         <v>-10.59</v>
       </c>
       <c r="D96" t="n">
-        <v>-7.411599999999996</v>
+        <v>-7.326499999999998</v>
       </c>
       <c r="E96" t="n">
         <v>16.3</v>
@@ -2086,7 +2086,7 @@
         <v>-13.93</v>
       </c>
       <c r="D97" t="n">
-        <v>-8.162799999999997</v>
+        <v>-8.089499999999999</v>
       </c>
       <c r="E97" t="n">
         <v>15.78</v>
@@ -2100,7 +2100,7 @@
         <v>4.73</v>
       </c>
       <c r="C98" t="n">
-        <v>-11.94229999999999</v>
+        <v>-12.27309999999999</v>
       </c>
       <c r="D98" t="n">
         <v>-9.33</v>
@@ -2128,13 +2128,13 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-21.75489999999999</v>
+        <v>-21.59359999999999</v>
       </c>
       <c r="B100" t="n">
         <v>5.09</v>
       </c>
       <c r="C100" t="n">
-        <v>-12.92409999999998</v>
+        <v>-13.23699999999999</v>
       </c>
       <c r="D100" t="n">
         <v>-7.71</v>
@@ -2168,7 +2168,7 @@
         <v>9.01</v>
       </c>
       <c r="C102" t="n">
-        <v>-13.663</v>
+        <v>-13.3136</v>
       </c>
       <c r="D102" t="n">
         <v>-8.630000000000001</v>
